--- a/sensorCSV/SAG2_sensor_data_with_decimal_filtered_updated02.xlsx
+++ b/sensorCSV/SAG2_sensor_data_with_decimal_filtered_updated02.xlsx
@@ -4101,7 +4101,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45725.14410631944</v>
+        <v>45725.10202298611</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45725.14412803241</v>
+        <v>45725.10204469907</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45725.14415158565</v>
+        <v>45725.10206825232</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45725.6442484838</v>
+        <v>45725.60216515046</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45725.64427013889</v>
+        <v>45725.60218680555</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45725.64429340278</v>
+        <v>45725.60221006945</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45726.14439034722</v>
+        <v>45726.10230701389</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45726.14441226852</v>
+        <v>45726.10232893519</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45726.14443555556</v>
+        <v>45726.10235222222</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45726.64453247685</v>
+        <v>45726.60244914352</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45726.644554375</v>
+        <v>45726.60247104167</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45726.64457766204</v>
+        <v>45726.6024943287</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45727.14467469908</v>
+        <v>45727.10259136574</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45727.14469642361</v>
+        <v>45727.10261309028</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45727.1447196875</v>
+        <v>45727.10263635417</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45727.64481660879</v>
+        <v>45727.60273327546</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45727.64483857639</v>
+        <v>45727.60275524305</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45727.64486179398</v>
+        <v>45727.60277846065</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45728.14495880787</v>
+        <v>45728.10287547453</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45728.14498053241</v>
+        <v>45728.10289719907</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45728.14500402778</v>
+        <v>45728.10292069444</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45728.64510079861</v>
+        <v>45728.60301746528</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45728.64512273148</v>
+        <v>45728.60303939815</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45728.64514599537</v>
+        <v>45728.60306266203</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45729.14524329861</v>
+        <v>45729.10315996528</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45729.14526475695</v>
+        <v>45729.10318142361</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45729.14528802083</v>
+        <v>45729.1032046875</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45729.64527777778</v>
+        <v>45729.60319444445</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45725.27952253472</v>
+        <v>45725.24488133102</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45725.27954420139</v>
+        <v>45725.24490299769</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45725.27956761574</v>
+        <v>45725.24492641204</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45725.77966394676</v>
+        <v>45725.74502274305</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45725.77968641204</v>
+        <v>45725.74504520834</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45725.77970979167</v>
+        <v>45725.74506858796</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45726.27980668982</v>
+        <v>45726.24516548611</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45726.27982879629</v>
+        <v>45726.24518759259</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45726.27985194445</v>
+        <v>45726.24521074074</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45726.77994898148</v>
+        <v>45726.74530777778</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45726.77997145833</v>
+        <v>45726.74533025463</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45726.77999483796</v>
+        <v>45726.74535363426</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45727.28009188658</v>
+        <v>45727.24545068287</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45727.28011366898</v>
+        <v>45727.24547246528</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45727.28013699074</v>
+        <v>45727.24549578704</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45727.36519327547</v>
+        <v>45727.33055207176</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45727.36521663194</v>
+        <v>45727.33057542824</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45727.36523991898</v>
+        <v>45727.33059871528</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45727.86533744213</v>
+        <v>45727.83069623842</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45727.86535872685</v>
+        <v>45727.83071752315</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45727.865381875</v>
+        <v>45727.8307406713</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45728.11317394676</v>
+        <v>45728.07853274306</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45728.11319730324</v>
+        <v>45728.07855609954</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45728.11322047454</v>
+        <v>45728.07857927083</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45728.19665146991</v>
+        <v>45728.16201026621</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45728.1966725926</v>
+        <v>45728.16203138889</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45728.1966958912</v>
+        <v>45728.1620546875</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45728.2801262963</v>
+        <v>45728.24548509259</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45728.28014790509</v>
+        <v>45728.24550670139</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45728.28017116898</v>
+        <v>45728.24552996528</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45728.36360284722</v>
+        <v>45728.32896164352</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45728.36362439815</v>
+        <v>45728.32898319444</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45728.36364789352</v>
+        <v>45728.32900668981</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45728.4470784838</v>
+        <v>45728.41243728009</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45728.44709965277</v>
+        <v>45728.41245844907</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45728.44712296296</v>
+        <v>45728.41248175926</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45728.53055337963</v>
+        <v>45728.49591217592</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45728.53057516204</v>
+        <v>45728.49593395834</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45728.53059850694</v>
+        <v>45728.49595730324</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45728.61402965278</v>
+        <v>45728.57938844908</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45728.61405163194</v>
+        <v>45728.57941042824</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45728.61407478009</v>
+        <v>45728.57943357639</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45728.6975057176</v>
+        <v>45728.66286451389</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45728.6975278588</v>
+        <v>45728.66288665509</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45728.69755096065</v>
+        <v>45728.66290975695</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45728.78098185185</v>
+        <v>45728.74634064815</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45728.7810037963</v>
+        <v>45728.7463625926</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45728.78102710648</v>
+        <v>45728.74638590278</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45728.86445737269</v>
+        <v>45728.82981616898</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45728.86447946759</v>
+        <v>45728.82983826389</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45728.8645025</v>
+        <v>45728.8298612963</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45728.9479346412</v>
+        <v>45728.9132934375</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45728.94795631945</v>
+        <v>45728.91331511574</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -7164,7 +7164,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45728.94797958333</v>
+        <v>45728.91333837963</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45729.03140989583</v>
+        <v>45728.99676869213</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45729.03143165509</v>
+        <v>45728.99679045139</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45729.03145491898</v>
+        <v>45728.99681371528</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45729.11488505787</v>
+        <v>45729.08024385417</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45729.11490722223</v>
+        <v>45729.08026601852</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45729.11493037037</v>
+        <v>45729.08028916667</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45729.19836060185</v>
+        <v>45729.16371939815</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45729.19838260417</v>
+        <v>45729.16374140047</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45729.19840596065</v>
+        <v>45729.16376475694</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45729.2818360301</v>
+        <v>45729.24719482639</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45729.281858125</v>
+        <v>45729.2472169213</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45729.28188127315</v>
+        <v>45729.24724006945</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>

--- a/sensorCSV/SAG2_sensor_data_with_decimal_filtered_updated02.xlsx
+++ b/sensorCSV/SAG2_sensor_data_with_decimal_filtered_updated02.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,10 +1487,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-13 13:55:33</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>45729.58035023148</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1522,6 +1520,119 @@
         <v>400</v>
       </c>
       <c r="I29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45729.5803721875</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45729.58039546297</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-14 01:55:46</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1536,7 +1647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4030,6 +4141,672 @@
         <v>400</v>
       </c>
       <c r="I67" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45729.31518523148</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45729.31520722222</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45729.3152303588</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45729.39866047454</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45729.39868246527</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45729.39870561343</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45729.48213673611</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45729.48215891204</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45729.482181875</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45729.56561206019</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>400</v>
+      </c>
+      <c r="I77" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45729.56563403935</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>400</v>
+      </c>
+      <c r="I78" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45729.56565724537</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>400</v>
+      </c>
+      <c r="I79" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45729.64909206019</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>400</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H80" t="n">
+        <v>400</v>
+      </c>
+      <c r="I80" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45729.64911011574</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>400</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H81" t="n">
+        <v>400</v>
+      </c>
+      <c r="I81" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45729.64913337963</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>400</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H82" t="n">
+        <v>400</v>
+      </c>
+      <c r="I82" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45729.73256368055</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>400</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H83" t="n">
+        <v>400</v>
+      </c>
+      <c r="I83" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45729.73258552083</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>400</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H84" t="n">
+        <v>400</v>
+      </c>
+      <c r="I84" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45729.73260887731</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>400</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H85" t="n">
+        <v>400</v>
+      </c>
+      <c r="I85" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4044,7 +4821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4101,7 +4878,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45725.10202298611</v>
+        <v>45725.14418733797</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4138,7 +4915,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45725.10204469907</v>
+        <v>45725.14420905092</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4175,7 +4952,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45725.10206825232</v>
+        <v>45725.14423260417</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -4212,7 +4989,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45725.60216515046</v>
+        <v>45725.64432950231</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -4249,7 +5026,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45725.60218680555</v>
+        <v>45725.64435115741</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -4286,7 +5063,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45725.60221006945</v>
+        <v>45725.6443744213</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -4323,7 +5100,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45726.10230701389</v>
+        <v>45726.14447136574</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -4360,7 +5137,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45726.10232893519</v>
+        <v>45726.14449328704</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -4397,7 +5174,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45726.10235222222</v>
+        <v>45726.14451657407</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -4434,7 +5211,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45726.60244914352</v>
+        <v>45726.64461349537</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -4471,7 +5248,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45726.60247104167</v>
+        <v>45726.64463539352</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -4508,7 +5285,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45726.6024943287</v>
+        <v>45726.64465868055</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -4545,7 +5322,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45727.10259136574</v>
+        <v>45727.14475571759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -4582,7 +5359,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45727.10261309028</v>
+        <v>45727.14477744213</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -4619,7 +5396,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45727.10263635417</v>
+        <v>45727.14480070602</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -4656,7 +5433,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45727.60273327546</v>
+        <v>45727.64489762732</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -4693,7 +5470,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45727.60275524305</v>
+        <v>45727.64491959491</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -4730,7 +5507,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45727.60277846065</v>
+        <v>45727.6449428125</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4767,7 +5544,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45728.10287547453</v>
+        <v>45728.14503982639</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4804,7 +5581,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45728.10289719907</v>
+        <v>45728.14506155092</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4841,7 +5618,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45728.10292069444</v>
+        <v>45728.14508504629</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4878,7 +5655,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45728.60301746528</v>
+        <v>45728.64518181713</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4915,7 +5692,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45728.60303939815</v>
+        <v>45728.64520375</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4952,7 +5729,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45728.60306266203</v>
+        <v>45728.64522701389</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -4989,7 +5766,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45729.10315996528</v>
+        <v>45729.14532431713</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5026,7 +5803,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45729.10318142361</v>
+        <v>45729.14534577546</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5063,7 +5840,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45729.1032046875</v>
+        <v>45729.14536903935</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -5100,7 +5877,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45729.60319444445</v>
+        <v>45729.64546597222</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -5132,6 +5909,117 @@
         <v>400</v>
       </c>
       <c r="I29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45729.64548792824</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45729.6455112037</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45730.14550925926</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5146,7 +6034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5203,7 +6091,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45725.24488133102</v>
+        <v>45725.27990447917</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -5240,7 +6128,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45725.24490299769</v>
+        <v>45725.27992614583</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -5277,7 +6165,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45725.24492641204</v>
+        <v>45725.27994956019</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -5314,7 +6202,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45725.74502274305</v>
+        <v>45725.7800458912</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -5351,7 +6239,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45725.74504520834</v>
+        <v>45725.78006835648</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -5388,7 +6276,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45725.74506858796</v>
+        <v>45725.78009173611</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -5425,7 +6313,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45726.24516548611</v>
+        <v>45726.28018863426</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -5462,7 +6350,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45726.24518759259</v>
+        <v>45726.28021074074</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -5499,7 +6387,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45726.24521074074</v>
+        <v>45726.28023388889</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -5536,7 +6424,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45726.74530777778</v>
+        <v>45726.78033092593</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -5573,7 +6461,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45726.74533025463</v>
+        <v>45726.78035340278</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -5610,7 +6498,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45726.74535363426</v>
+        <v>45726.78037678241</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -5647,7 +6535,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45727.24545068287</v>
+        <v>45727.28047383102</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -5684,7 +6572,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45727.24547246528</v>
+        <v>45727.28049561343</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -5721,7 +6609,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45727.24549578704</v>
+        <v>45727.28051893519</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -5758,7 +6646,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45727.33055207176</v>
+        <v>45727.3655752199</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -5795,7 +6683,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45727.33057542824</v>
+        <v>45727.36559857639</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -5832,7 +6720,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45727.33059871528</v>
+        <v>45727.36562186343</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -5869,7 +6757,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45727.83069623842</v>
+        <v>45727.86571938657</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -5906,7 +6794,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45727.83071752315</v>
+        <v>45727.8657406713</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -5943,7 +6831,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45727.8307406713</v>
+        <v>45727.86576381944</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -5980,7 +6868,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45728.07853274306</v>
+        <v>45728.11355589121</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -6017,7 +6905,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45728.07855609954</v>
+        <v>45728.11357924769</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -6054,7 +6942,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45728.07857927083</v>
+        <v>45728.11360241898</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -6091,7 +6979,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45728.16201026621</v>
+        <v>45728.19703341436</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -6128,7 +7016,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45728.16203138889</v>
+        <v>45728.19705453704</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -6165,7 +7053,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45728.1620546875</v>
+        <v>45728.19707783565</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -6202,7 +7090,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45728.24548509259</v>
+        <v>45728.28050824074</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -6239,7 +7127,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45728.24550670139</v>
+        <v>45728.28052984954</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -6276,7 +7164,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45728.24552996528</v>
+        <v>45728.28055311343</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -6313,7 +7201,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45728.32896164352</v>
+        <v>45728.36398479166</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -6350,7 +7238,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45728.32898319444</v>
+        <v>45728.36400634259</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -6387,7 +7275,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45728.32900668981</v>
+        <v>45728.36402983796</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -6424,7 +7312,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45728.41243728009</v>
+        <v>45728.44746042824</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -6461,7 +7349,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45728.41245844907</v>
+        <v>45728.44748159722</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -6498,7 +7386,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45728.41248175926</v>
+        <v>45728.44750490741</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -6535,7 +7423,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45728.49591217592</v>
+        <v>45728.53093532407</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -6572,7 +7460,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45728.49593395834</v>
+        <v>45728.53095710648</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -6609,7 +7497,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45728.49595730324</v>
+        <v>45728.53098045139</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -6646,7 +7534,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45728.57938844908</v>
+        <v>45728.61441159722</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -6683,7 +7571,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45728.57941042824</v>
+        <v>45728.61443357639</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -6720,7 +7608,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45728.57943357639</v>
+        <v>45728.61445672454</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -6757,7 +7645,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45728.66286451389</v>
+        <v>45728.69788766203</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -6794,7 +7682,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45728.66288665509</v>
+        <v>45728.69790980324</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -6831,7 +7719,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45728.66290975695</v>
+        <v>45728.6979329051</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -6868,7 +7756,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45728.74634064815</v>
+        <v>45728.7813637963</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -6905,7 +7793,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45728.7463625926</v>
+        <v>45728.78138574074</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -6942,7 +7830,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45728.74638590278</v>
+        <v>45728.78140905093</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -6979,7 +7867,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45728.82981616898</v>
+        <v>45728.86483931713</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -7016,7 +7904,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45728.82983826389</v>
+        <v>45728.86486141204</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -7053,7 +7941,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45728.8298612963</v>
+        <v>45728.86488444445</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -7090,7 +7978,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45728.9132934375</v>
+        <v>45728.94831658565</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -7127,7 +8015,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45728.91331511574</v>
+        <v>45728.94833826389</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -7164,7 +8052,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45728.91333837963</v>
+        <v>45728.94836152778</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -7201,7 +8089,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45728.99676869213</v>
+        <v>45729.03179184028</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -7238,7 +8126,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45728.99679045139</v>
+        <v>45729.03181359954</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -7275,7 +8163,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45728.99681371528</v>
+        <v>45729.03183686343</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -7312,7 +8200,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45729.08024385417</v>
+        <v>45729.11526700231</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -7349,7 +8237,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45729.08026601852</v>
+        <v>45729.11528916666</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -7386,7 +8274,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45729.08028916667</v>
+        <v>45729.11531231482</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -7423,7 +8311,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45729.16371939815</v>
+        <v>45729.19874254629</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -7460,7 +8348,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45729.16374140047</v>
+        <v>45729.19876454861</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -7497,7 +8385,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45729.16376475694</v>
+        <v>45729.19878790509</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -7534,7 +8422,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45729.24719482639</v>
+        <v>45729.28221797453</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -7571,7 +8459,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45729.2472169213</v>
+        <v>45729.28224006944</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -7608,7 +8496,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45729.24724006945</v>
+        <v>45729.2822632176</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -7640,6 +8528,672 @@
         <v>400</v>
       </c>
       <c r="I67" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45729.36569449074</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45729.36571648148</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45729.36573961806</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45729.44916973379</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45729.44919172454</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45729.44921487269</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45729.53264599537</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45729.5326681713</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45729.53269113426</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45729.61612131944</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>400</v>
+      </c>
+      <c r="I77" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45729.61614329861</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>400</v>
+      </c>
+      <c r="I78" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45729.61616650463</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>400</v>
+      </c>
+      <c r="I79" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45729.69960131944</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>400</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H80" t="n">
+        <v>400</v>
+      </c>
+      <c r="I80" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45729.699619375</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>400</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H81" t="n">
+        <v>400</v>
+      </c>
+      <c r="I81" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45729.69964263889</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>400</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H82" t="n">
+        <v>400</v>
+      </c>
+      <c r="I82" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45729.78307293981</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>400</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H83" t="n">
+        <v>400</v>
+      </c>
+      <c r="I83" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45729.78309478009</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>400</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H84" t="n">
+        <v>400</v>
+      </c>
+      <c r="I84" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45729.78311813658</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>400</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H85" t="n">
+        <v>400</v>
+      </c>
+      <c r="I85" t="n">
         <v>25</v>
       </c>
     </row>

--- a/sensorCSV/SAG2_sensor_data_with_decimal_filtered_updated02.xlsx
+++ b/sensorCSV/SAG2_sensor_data_with_decimal_filtered_updated02.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1594,45 +1594,6 @@
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-14 01:55:46</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0x14</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H32" t="n">
-        <v>400</v>
-      </c>
-      <c r="I32" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1647,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4807,6 +4768,339 @@
         <v>400</v>
       </c>
       <c r="I85" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45729.8160389699</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>400</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H86" t="n">
+        <v>400</v>
+      </c>
+      <c r="I86" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45729.81606084491</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>400</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H87" t="n">
+        <v>400</v>
+      </c>
+      <c r="I87" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45729.81608430555</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>400</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H88" t="n">
+        <v>400</v>
+      </c>
+      <c r="I88" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45729.89951609954</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>400</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H89" t="n">
+        <v>400</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45729.89953711806</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>400</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>400</v>
+      </c>
+      <c r="I90" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45729.89956038194</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>400</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H91" t="n">
+        <v>400</v>
+      </c>
+      <c r="I91" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45729.98299244213</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>400</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H92" t="n">
+        <v>400</v>
+      </c>
+      <c r="I92" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45729.98301351852</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>400</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H93" t="n">
+        <v>400</v>
+      </c>
+      <c r="I93" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45729.98303674768</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>400</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H94" t="n">
+        <v>400</v>
+      </c>
+      <c r="I94" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4821,7 +5115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4878,7 +5172,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45725.14418733797</v>
+        <v>45725.10260168982</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4915,7 +5209,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45725.14420905092</v>
+        <v>45725.10262340278</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4952,7 +5246,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45725.14423260417</v>
+        <v>45725.10264695602</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -4989,7 +5283,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45725.64432950231</v>
+        <v>45725.60274385416</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -5026,7 +5320,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45725.64435115741</v>
+        <v>45725.60276550926</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -5063,7 +5357,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45725.6443744213</v>
+        <v>45725.60278877315</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -5100,7 +5394,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45726.14447136574</v>
+        <v>45726.10288571759</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -5137,7 +5431,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45726.14449328704</v>
+        <v>45726.10290763889</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -5174,7 +5468,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45726.14451657407</v>
+        <v>45726.10293092592</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -5211,7 +5505,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45726.64461349537</v>
+        <v>45726.60302784722</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -5248,7 +5542,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45726.64463539352</v>
+        <v>45726.60304974537</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -5285,7 +5579,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45726.64465868055</v>
+        <v>45726.60307303241</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -5322,7 +5616,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45727.14475571759</v>
+        <v>45727.10317006944</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -5359,7 +5653,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45727.14477744213</v>
+        <v>45727.10319179398</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -5396,7 +5690,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45727.14480070602</v>
+        <v>45727.10321505787</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -5433,7 +5727,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45727.64489762732</v>
+        <v>45727.60331197917</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -5470,7 +5764,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45727.64491959491</v>
+        <v>45727.60333394676</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -5507,7 +5801,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45727.6449428125</v>
+        <v>45727.60335716435</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -5544,7 +5838,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45728.14503982639</v>
+        <v>45728.10345417824</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -5581,7 +5875,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45728.14506155092</v>
+        <v>45728.10347590278</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -5618,7 +5912,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45728.14508504629</v>
+        <v>45728.10349939814</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -5655,7 +5949,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45728.64518181713</v>
+        <v>45728.60359616898</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -5692,7 +5986,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45728.64520375</v>
+        <v>45728.60361810185</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -5729,7 +6023,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45728.64522701389</v>
+        <v>45728.60364136574</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -5766,7 +6060,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45729.14532431713</v>
+        <v>45729.10373866898</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5803,7 +6097,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45729.14534577546</v>
+        <v>45729.10376012731</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5840,7 +6134,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45729.14536903935</v>
+        <v>45729.10378339121</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -5877,7 +6171,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45729.64546597222</v>
+        <v>45729.60388032407</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -5914,7 +6208,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45729.64548792824</v>
+        <v>45729.60390228009</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -5951,7 +6245,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45729.6455112037</v>
+        <v>45729.60392555556</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -5983,43 +6277,6 @@
         <v>400</v>
       </c>
       <c r="I31" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45730.14550925926</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0x01,0x90,</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0x14</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H32" t="n">
-        <v>400</v>
-      </c>
-      <c r="I32" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6034,7 +6291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6091,7 +6348,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45725.27990447917</v>
+        <v>45725.24502021991</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -6128,7 +6385,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45725.27992614583</v>
+        <v>45725.24504188658</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -6165,7 +6422,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45725.27994956019</v>
+        <v>45725.24506530093</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -6202,7 +6459,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45725.7800458912</v>
+        <v>45725.74516163194</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -6239,7 +6496,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45725.78006835648</v>
+        <v>45725.74518409722</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -6276,7 +6533,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45725.78009173611</v>
+        <v>45725.74520747685</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -6313,7 +6570,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45726.28018863426</v>
+        <v>45726.245304375</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -6350,7 +6607,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45726.28021074074</v>
+        <v>45726.24532648148</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -6387,7 +6644,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45726.28023388889</v>
+        <v>45726.24534962963</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -6424,7 +6681,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45726.78033092593</v>
+        <v>45726.74544666667</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -6461,7 +6718,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45726.78035340278</v>
+        <v>45726.74546914352</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -6498,7 +6755,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45726.78037678241</v>
+        <v>45726.74549252315</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -6535,7 +6792,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45727.28047383102</v>
+        <v>45727.24558957176</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -6572,7 +6829,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45727.28049561343</v>
+        <v>45727.24561135417</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -6609,7 +6866,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45727.28051893519</v>
+        <v>45727.24563467593</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -6646,7 +6903,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45727.3655752199</v>
+        <v>45727.33069096065</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -6683,7 +6940,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45727.36559857639</v>
+        <v>45727.33071431713</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -6720,7 +6977,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45727.36562186343</v>
+        <v>45727.33073760417</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -6757,7 +7014,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45727.86571938657</v>
+        <v>45727.83083512732</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -6794,7 +7051,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45727.8657406713</v>
+        <v>45727.83085641204</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -6831,7 +7088,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45727.86576381944</v>
+        <v>45727.83087956018</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -6868,7 +7125,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45728.11355589121</v>
+        <v>45728.07867163194</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -6905,7 +7162,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45728.11357924769</v>
+        <v>45728.07869498843</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -6942,7 +7199,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45728.11360241898</v>
+        <v>45728.07871815972</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -6979,7 +7236,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45728.19703341436</v>
+        <v>45728.16214915509</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -7016,7 +7273,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45728.19705453704</v>
+        <v>45728.16217027778</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -7053,7 +7310,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45728.19707783565</v>
+        <v>45728.16219357639</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -7090,7 +7347,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45728.28050824074</v>
+        <v>45728.24562398148</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -7127,7 +7384,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45728.28052984954</v>
+        <v>45728.24564559028</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -7164,7 +7421,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45728.28055311343</v>
+        <v>45728.24566885416</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -7201,7 +7458,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45728.36398479166</v>
+        <v>45728.32910053241</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -7238,7 +7495,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45728.36400634259</v>
+        <v>45728.32912208333</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -7275,7 +7532,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45728.36402983796</v>
+        <v>45728.3291455787</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -7312,7 +7569,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45728.44746042824</v>
+        <v>45728.41257616898</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -7349,7 +7606,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45728.44748159722</v>
+        <v>45728.41259733796</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -7386,7 +7643,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45728.44750490741</v>
+        <v>45728.41262064815</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -7423,7 +7680,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45728.53093532407</v>
+        <v>45728.49605106482</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -7460,7 +7717,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45728.53095710648</v>
+        <v>45728.49607284722</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -7497,7 +7754,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45728.53098045139</v>
+        <v>45728.49609619213</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -7534,7 +7791,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45728.61441159722</v>
+        <v>45728.57952733796</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -7571,7 +7828,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45728.61443357639</v>
+        <v>45728.57954931713</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -7608,7 +7865,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45728.61445672454</v>
+        <v>45728.57957246528</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -7645,7 +7902,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45728.69788766203</v>
+        <v>45728.66300340278</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -7682,7 +7939,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45728.69790980324</v>
+        <v>45728.66302554398</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -7719,7 +7976,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45728.6979329051</v>
+        <v>45728.66304864583</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -7756,7 +8013,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45728.7813637963</v>
+        <v>45728.74647953704</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -7793,7 +8050,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45728.78138574074</v>
+        <v>45728.74650148148</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -7830,7 +8087,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45728.78140905093</v>
+        <v>45728.74652479167</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -7867,7 +8124,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45728.86483931713</v>
+        <v>45728.82995505787</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -7904,7 +8161,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45728.86486141204</v>
+        <v>45728.82997715277</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -7941,7 +8198,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45728.86488444445</v>
+        <v>45728.83000018518</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -7978,7 +8235,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45728.94831658565</v>
+        <v>45728.91343232639</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -8015,7 +8272,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45728.94833826389</v>
+        <v>45728.91345400463</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -8052,7 +8309,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45728.94836152778</v>
+        <v>45728.91347726852</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -8089,7 +8346,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45729.03179184028</v>
+        <v>45728.99690758101</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -8126,7 +8383,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45729.03181359954</v>
+        <v>45728.99692934028</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -8163,7 +8420,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45729.03183686343</v>
+        <v>45728.99695260417</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -8200,7 +8457,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45729.11526700231</v>
+        <v>45729.08038274306</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -8237,7 +8494,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45729.11528916666</v>
+        <v>45729.08040490741</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -8274,7 +8531,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45729.11531231482</v>
+        <v>45729.08042805555</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -8311,7 +8568,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45729.19874254629</v>
+        <v>45729.16385828704</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -8348,7 +8605,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45729.19876454861</v>
+        <v>45729.16388028935</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -8385,7 +8642,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45729.19878790509</v>
+        <v>45729.16390364584</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -8422,7 +8679,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45729.28221797453</v>
+        <v>45729.24733371528</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -8459,7 +8716,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45729.28224006944</v>
+        <v>45729.24735581018</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -8496,7 +8753,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45729.2822632176</v>
+        <v>45729.24737895833</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -8533,7 +8790,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45729.36569449074</v>
+        <v>45729.33081023148</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -8570,7 +8827,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45729.36571648148</v>
+        <v>45729.33083222222</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -8607,7 +8864,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45729.36573961806</v>
+        <v>45729.3308553588</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -8644,7 +8901,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45729.44916973379</v>
+        <v>45729.41428547454</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -8681,7 +8938,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45729.44919172454</v>
+        <v>45729.41430746527</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -8718,7 +8975,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45729.44921487269</v>
+        <v>45729.41433061343</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -8755,7 +9012,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45729.53264599537</v>
+        <v>45729.49776173611</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -8792,7 +9049,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45729.5326681713</v>
+        <v>45729.49778391204</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -8829,7 +9086,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45729.53269113426</v>
+        <v>45729.497806875</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -8866,7 +9123,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45729.61612131944</v>
+        <v>45729.58123706019</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -8903,7 +9160,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45729.61614329861</v>
+        <v>45729.58125903935</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -8940,7 +9197,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45729.61616650463</v>
+        <v>45729.58128224537</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -8977,7 +9234,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45729.69960131944</v>
+        <v>45729.66471706019</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -9014,7 +9271,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45729.699619375</v>
+        <v>45729.66473511574</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -9051,7 +9308,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45729.69964263889</v>
+        <v>45729.66475837963</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -9088,7 +9345,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45729.78307293981</v>
+        <v>45729.74818868055</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -9125,7 +9382,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45729.78309478009</v>
+        <v>45729.74821052083</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -9162,7 +9419,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45729.78311813658</v>
+        <v>45729.74823387731</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -9194,6 +9451,339 @@
         <v>400</v>
       </c>
       <c r="I85" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45729.8316639699</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>400</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H86" t="n">
+        <v>400</v>
+      </c>
+      <c r="I86" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45729.83168584491</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>400</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H87" t="n">
+        <v>400</v>
+      </c>
+      <c r="I87" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45729.83170930555</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>400</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H88" t="n">
+        <v>400</v>
+      </c>
+      <c r="I88" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45729.91514109954</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>400</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H89" t="n">
+        <v>400</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45729.91516211806</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>400</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>400</v>
+      </c>
+      <c r="I90" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45729.91518538194</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>400</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H91" t="n">
+        <v>400</v>
+      </c>
+      <c r="I91" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45729.99861744213</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>400</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H92" t="n">
+        <v>400</v>
+      </c>
+      <c r="I92" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45729.99863851852</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>400</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H93" t="n">
+        <v>400</v>
+      </c>
+      <c r="I93" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45729.99866174768</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>400</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H94" t="n">
+        <v>400</v>
+      </c>
+      <c r="I94" t="n">
         <v>25</v>
       </c>
     </row>
